--- a/outputs/rpwa1-1.xlsx
+++ b/outputs/rpwa1-1.xlsx
@@ -4,6 +4,8 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -397,42 +399,2550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Text</v>
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Form RPWA 1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>--- Page 1 ---</v>
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Government of Rajasthan</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Government of Rajasthan  Public Works Department, Jaipur  PWD103: X.En.PWD. Electric Div.Udr. (12189)  Apr, 2022 CASH BOOK ( Ver 1.0 )  (Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)  Form RPWA 1  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  1   Opening Balance   0.00  2   0.00   07-04-2022   Tvno: 45   GST Adjustment Bill   345560.00   3,45,560   8658-00-139-00-00  3   09-04-2022   CrNo: Ch No: 216311  ARJUN METALS PVT LTD  1,000.00   0075-00-800-52-01   09-04-2022   ChlnNo: 216311 GRN:61051371  Remittance to Treasury   1,000   0.00   1,000   0075-00-800-52-01  4   11-04-2022   CrNo: Ch No: 232441  Raghu Enterprises   500.00   0075-00-800-52-01   11-04-2022   ChlnNo: 232441 GRN:61097318  Remittance to Treasury   44,900   0.00   44,900   0075-00-800-52-01, 8443- 00-108-00-00  5   11-04-2022   CrNo: Ch No: 232441  Raghu Enterprises   44,400.00   8443-00-108-00-00   11-04-2022   ChlnNo: 262609 GRN:61080091  Remittance to Treasury   33,830   0.00   33,830   0075-00-800-52-01, 8443- 00-108-00-00  6   11-04-2022   CrNo: Ch No: 262609  KRISHNA ELECTRIC STORE PALI  1,000.00   0075-00-800-52-01   11-04-2022   ChlnNo: 269693 GRN:61099218  Remittance to Treasury   10,050   0.00   10,050   0075-00-800-52-01, 8443- 00-108-00-00  7   11-04-2022   CrNo: Ch No: 262609  KRISHNA ELECTRIC STORE PALI  32,830.00   8443-00-108-00-00   0.00  8   11-04-2022   CrNo: Ch No: 269693  Mitul Enterprises   500.00   0075-00-800-52-01   0.00  9   11-04-2022   CrNo: Ch No: 269693  Mitul Enterprises   9,550.00   8443-00-108-00-00   0.00  10   28-04-2022   TVNo: 4485   Mitul Enterprises   1,420.00   1420: I-Tax,   28-04-2022   Tvno: 4485   Mitul Enterprises , Paymanager Bill No: 39077332, Bill Type: HR Payment (Contingency/Misc)  1,420   69592.00   71,012   2216-05-053-01-09-21-V-P  11   28-04-2022   TVNo: 4486   Shubham Electricals and Maintenance (AgreeMentNo 43/2018- 19, SITC of 1 Nos 6 Passenger Elevator in TAD Commissioner Office building Udaipur)  34,578.00   9718: SD2, 1944: I-Tax, 1944: GSTIN Deduction, 972: Labour-Welfare, 20000: MD5,  28-04-2022   Tvno: 4486   Shubham Electricals and Maintenance (Wo.No.:1271 , Wo. Date:17/12/2018, AgreeMentNo 43/2018- 19, SITC of 1 Nos 6 Passenger Elevator in TAD Commissioner Office building Udaipur) , Paymanager Bill No: 39077431, Bill Type: Work Order Payments (3 &amp; Final)  34,578   62605.00   97,183   8443-00-108-00-00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:24 PM) Page 1 of 2</v>
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>Public Works Department, Jaipur</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>--- Page 2 ---</v>
+        <v>PWD103: X.En.PWD. Electric Div.Udr.</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>CASH BOOK (</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Ver 1.0 )</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>Apr, 2022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Signature of Sr.DAO/DAO/DA with seal   Signature of DO with seal  (A.L.Verma, Sr.D.A.O.)   (Deepak Pareek, Ee Pwd Elect Dn Udaipur)  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  12   28-04-2022   TVNo: 4487   Mitul Enterprises (AgreeMentNo 8/2021- 22, P/f of light luminaire and Electric repair work in old PG hostel (Near Child Hospital) at RNT Medical college Udaipur)  2,878.00   1439: SD2, 959: I-Tax, 480: Labour-Welfare,  28-04-2022   Tvno: 4487   Mitul Enterprises (Wo.No.:327 , Wo. Date:30/07/2021, AgreeMentNo 8/2021- 22, P/f of light luminaire and Electric repair work in old PG hostel (Near Child Hospital) at RNT Medical college Udaipur) , Paymanager Bill No: 39077461, Bill Type: Work Order Payments (First &amp; Final)  2,878   45094.00   47,972   8443-00-108-00-00  13   Closing Balance  128656.00   128656.00   522851.00   651507.00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:24 PM) Page 2 of 2</v>
+        <v>(12189)</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>(Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C8" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G8" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D9" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Treasury Total</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Opening Balance</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E12" t="str">
+        <v>07-04-2022</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Tvno: 45</v>
+      </c>
+      <c r="G12" t="str">
+        <v>GST Adjustment Bill</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>345560.00</v>
+      </c>
+      <c r="J12" t="str">
+        <v>3,45,560</v>
+      </c>
+      <c r="K12" t="str">
+        <v>8658-00-139-00-00</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3 09-04-2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CrNo: Ch No: ARJUN METALS PVT</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>1,000.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E13" t="str">
+        <v>09-04-2022</v>
+      </c>
+      <c r="F13" t="str">
+        <v>ChlnNo: 216311</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H13" t="str">
+        <v>1,000</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J13" t="str">
+        <v>1,000</v>
+      </c>
+      <c r="K13" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>216311 LTD</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>GRN:61051371</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>4 11-04-2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>CrNo: Ch No: Raghu Enterprises</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E15" t="str">
+        <v>11-04-2022</v>
+      </c>
+      <c r="F15" t="str">
+        <v>ChlnNo: 232441</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H15" t="str">
+        <v>44,900</v>
+      </c>
+      <c r="I15" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J15" t="str">
+        <v>44,900</v>
+      </c>
+      <c r="K15" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>232441</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>GRN:61097318</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>5 11-04-2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CrNo: Ch No: Raghu Enterprises</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>44,400.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E17" t="str">
+        <v>11-04-2022</v>
+      </c>
+      <c r="F17" t="str">
+        <v>ChlnNo: 262609</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H17" t="str">
+        <v>33,830</v>
+      </c>
+      <c r="I17" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J17" t="str">
+        <v>33,830</v>
+      </c>
+      <c r="K17" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>232441</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>GRN:61080091</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>6 11-04-2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>CrNo: Ch No: KRISHNA ELECTRIC</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>1,000.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E19" t="str">
+        <v>11-04-2022</v>
+      </c>
+      <c r="F19" t="str">
+        <v>ChlnNo: 269693</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H19" t="str">
+        <v>10,050</v>
+      </c>
+      <c r="I19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J19" t="str">
+        <v>10,050</v>
+      </c>
+      <c r="K19" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>262609 STORE PALI</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>GRN:61099218</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>7 11-04-2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>CrNo: Ch No: KRISHNA ELECTRIC</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v>32,830.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>262609 STORE PALI</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8 11-04-2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CrNo: Ch No: Mitul Enterprises</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>269693</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>9 11-04-2022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>CrNo: Ch No: Mitul Enterprises</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>9,550.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v>269693</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>10 28-04-2022</v>
+      </c>
+      <c r="B27" t="str">
+        <v>TVNo: 4485 Mitul Enterprises</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v>1,420.00 1420: I-Tax,</v>
+      </c>
+      <c r="E27" t="str">
+        <v>28-04-2022</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Tvno: 4485</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Mitul Enterprises ,</v>
+      </c>
+      <c r="H27" t="str">
+        <v>1,420</v>
+      </c>
+      <c r="I27" t="str">
+        <v>69592.00</v>
+      </c>
+      <c r="J27" t="str">
+        <v>71,012</v>
+      </c>
+      <c r="K27" t="str">
+        <v>2216-05-053-01-09-21-V-P</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>39077332, Bill Type:</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>HR Payment</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>(Contingency/Misc)</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>11 28-04-2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>TVNo: 4486 Shubham Electricals and</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>34,578.00 9718: SD2, 1944: I-Tax,</v>
+      </c>
+      <c r="E32" t="str">
+        <v>28-04-2022</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Tvno: 4486</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Shubham Electricals</v>
+      </c>
+      <c r="H32" t="str">
+        <v>34,578</v>
+      </c>
+      <c r="I32" t="str">
+        <v>62605.00</v>
+      </c>
+      <c r="J32" t="str">
+        <v>97,183</v>
+      </c>
+      <c r="K32" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v>Maintenance</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v>1944: GSTIN Deduction,</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>and Maintenance</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v>(AgreeMentNo 43/2018-</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>972: Labour-Welfare,</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>(Wo.No.:1271 , Wo.</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>19, SITC of 1 Nos 6</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v>20000: MD5,</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>Date:17/12/2018,</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v>Passenger Elevator in</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>AgreeMentNo 43/2018-</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>TAD Commissioner</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>19, SITC of 1 Nos 6</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v>Office building Udaipur)</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>Passenger Elevator in</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>TAD Commissioner</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>Office building Udaipur)</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>, Paymanager Bill No:</v>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>39077431, Bill Type:</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>(3 &amp; Final)</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Page 1 of 2</v>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:24 PM)</v>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K45"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="H2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash)</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Receipt</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>12 28-04-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TVNo: 4487 Mitul Enterprises</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>2,878.00</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1439: SD2, 959: I-Tax,</v>
+      </c>
+      <c r="F5" t="str">
+        <v>28-04-2022</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Tvno: 4487 Mitul Enterprises</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>2,878 45094.00</v>
+      </c>
+      <c r="J5" t="str">
+        <v>47,972</v>
+      </c>
+      <c r="K5" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>(AgreeMentNo 8/2021-</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>480: Labour-Welfare,</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>(Wo.No.:327 , Wo.</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>22, P/f of light luminaire</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>Date:30/07/2021,</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>and Electric repair work</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>AgreeMentNo 8/2021-</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>in old PG hostel (Near</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>22, P/f of light luminaire</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v>Child Hospital) at RNT</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>and Electric repair work</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>Medical college Udaipur)</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>in old PG hostel (Near</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>Child Hospital) at RNT</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>Medical college</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>Bill No: 39077461, Bill</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>Payments (First &amp;</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>Final)</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>13</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>Closing Balance</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>128656.00</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v>128656.00 522851.00</v>
+      </c>
+      <c r="J20" t="str">
+        <v>651507.00</v>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Signature of Sr.DAO/DAO/DA with seal</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v>Signature of DO with seal</v>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>(A.L.Verma, Sr.D.A.O.)</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v>(Deepak Pareek, Ee Pwd Elect Dn Udaipur)</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Page 2 of 2</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:24 PM)</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K23"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PDF to Excel Extraction Summary</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Source File:</v>
+      </c>
+      <c r="B3" t="str">
+        <v>rpwa1-1.pdf</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Extraction Date:</v>
+      </c>
+      <c r="B4" t="str">
+        <v>9/16/2025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Tables Extracted:</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Table Details:</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Table #</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Rows</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Columns</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Confidence</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Sheet Name</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Table 1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>44</v>
+      </c>
+      <c r="C9" t="str">
+        <v>11</v>
+      </c>
+      <c r="D9" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Table 1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Table 2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>22</v>
+      </c>
+      <c r="C10" t="str">
+        <v>11</v>
+      </c>
+      <c r="D10" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Table 2</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>